--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C789B2C-0C7A-4C57-9FD5-BA1032270ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B1C1E8-31F9-4057-9260-2C88E0FC5716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B1C1E8-31F9-4057-9260-2C88E0FC5716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D33AF-C527-4713-B35E-56CFAABB3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="180">
   <si>
     <t>Columna</t>
   </si>
@@ -727,6 +727,9 @@
       </rPr>
       <t xml:space="preserve"> Desplegar el sistema y cerrar el proyecto.</t>
     </r>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -1358,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1482,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>62</v>
@@ -1500,7 +1503,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>64</v>
@@ -1521,7 +1524,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>64</v>
@@ -1542,7 +1545,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>64</v>
@@ -1563,7 +1566,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1584,7 +1587,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>64</v>
@@ -1684,7 +1687,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>71</v>
@@ -1705,7 +1708,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>71</v>
@@ -1726,7 +1729,7 @@
         <v>73</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>64</v>
@@ -1747,7 +1750,7 @@
         <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>62</v>
@@ -1768,7 +1771,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>71</v>
@@ -1868,7 +1871,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>71</v>
@@ -1889,7 +1892,7 @@
         <v>78</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>79</v>
@@ -1910,7 +1913,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>71</v>
@@ -1931,7 +1934,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>62</v>
@@ -1952,7 +1955,7 @@
         <v>82</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>83</v>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D33AF-C527-4713-B35E-56CFAABB3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5D0977-895C-41E3-BF6E-9AC503561F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$H$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$H$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="180">
   <si>
     <t>Columna</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>HT-031</t>
-  </si>
-  <si>
-    <t>Probar la integración de métodos de pago y envío</t>
   </si>
   <si>
     <t>2 horas</t>
@@ -599,36 +596,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Lógica de negocio para el carrito y la gestión de pedidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Implementar métodos de pago y envío.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Gestión de estados y devoluciones.</t>
     </r>
   </si>
@@ -731,12 +698,45 @@
   <si>
     <t>Hecho</t>
   </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Finalizar la lógica del carrito y preparar la base para la gestión de pedidos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Completar la lógica de pedidos integrando los métodos de pago y envío.</t>
+    </r>
+  </si>
+  <si>
+    <t>Probar la integración de métodos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +800,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -983,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1054,6 +1062,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H143"/>
+  <dimension ref="B1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1453,7 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1482,7 +1500,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>62</v>
@@ -1503,7 +1521,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>64</v>
@@ -1524,7 +1542,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>64</v>
@@ -1545,7 +1563,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>64</v>
@@ -1566,7 +1584,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1587,7 +1605,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>64</v>
@@ -1640,7 +1658,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1687,7 +1705,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>71</v>
@@ -1708,7 +1726,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>71</v>
@@ -1729,7 +1747,7 @@
         <v>73</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>64</v>
@@ -1750,7 +1768,7 @@
         <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>62</v>
@@ -1771,7 +1789,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>71</v>
@@ -1824,7 +1842,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1871,7 +1889,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>71</v>
@@ -1892,7 +1910,7 @@
         <v>78</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>79</v>
@@ -1913,7 +1931,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>71</v>
@@ -1934,7 +1952,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>62</v>
@@ -1955,7 +1973,7 @@
         <v>82</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>83</v>
@@ -1986,8 +2004,8 @@
       <c r="G41"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+    <row r="42" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="9"/>
@@ -1999,30 +2017,30 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="11"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>177</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="11"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
     </row>
@@ -2030,16 +2048,16 @@
       <c r="B46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="34" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -2051,16 +2069,16 @@
       <c r="B47" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="16" t="s">
@@ -2070,22 +2088,22 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -2093,16 +2111,16 @@
       <c r="B49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="16" t="s">
@@ -2112,160 +2130,160 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="17" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="11"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
+      <c r="B57" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D59" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E59" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F59" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G59" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="35" t="s">
         <v>25</v>
       </c>
       <c r="G60" s="16" t="s">
@@ -2277,16 +2295,16 @@
       <c r="B61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D61" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="35" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -2298,16 +2316,16 @@
       <c r="B62" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="35" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -2315,37 +2333,49 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="19" t="s">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
+    <row r="64" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2354,30 +2384,28 @@
       <c r="G65"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10"/>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67" s="11"/>
+    <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
-        <v>170</v>
-      </c>
+      <c r="B68" s="12"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
@@ -2386,7 +2414,9 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
+      <c r="B69" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
@@ -2394,102 +2424,90 @@
       <c r="G69" s="11"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D71" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E71" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F71" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G71" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>29</v>
@@ -2499,60 +2517,70 @@
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="17" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F76" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
+    <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="12"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78" s="11"/>
+    <row r="78" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>173</v>
-      </c>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
@@ -2560,8 +2588,10 @@
       <c r="G79" s="11"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="12"/>
+    <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
@@ -2569,60 +2599,48 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="13" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C82" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D82" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E82" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F82" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G82" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>30</v>
@@ -2632,12 +2650,12 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>61</v>
@@ -2653,37 +2671,49 @@
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="19" t="s">
+    <row r="85" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="17" t="s">
+      <c r="C86" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F86" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
+      <c r="G86" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -2692,30 +2722,28 @@
       <c r="G87"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="10"/>
+    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="12"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89" s="11"/>
+    <row r="89" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="22" t="s">
-        <v>174</v>
-      </c>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
@@ -2724,59 +2752,50 @@
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
+      <c r="B91" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C93" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E93" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G93" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>61</v>
@@ -2793,16 +2812,16 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>26</v>
@@ -2813,10 +2832,10 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>61</v>
@@ -2833,10 +2852,10 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>61</v>
@@ -2851,35 +2870,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="19" t="s">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F98" s="17" t="s">
+      <c r="D99" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G98" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-    </row>
-    <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -2887,28 +2918,26 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102" s="11"/>
+    <row r="101" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="10"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
-        <v>175</v>
-      </c>
+      <c r="B103" s="12"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
@@ -2916,59 +2945,49 @@
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
+      <c r="B104" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="13" t="s">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="12"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D106" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="F106" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="G106" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>61</v>
@@ -2985,53 +3004,65 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E109" s="17" t="s">
+      <c r="D110" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F110" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="G110" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -3039,28 +3070,26 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="12"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113" s="11"/>
+    <row r="112" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="22" t="s">
-        <v>176</v>
-      </c>
+      <c r="B114" s="12"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
@@ -3068,65 +3097,55 @@
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="12"/>
+      <c r="B115" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="12"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D117" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E117" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F116" s="23" t="s">
+      <c r="F117" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G117" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>28</v>
@@ -3137,16 +3156,16 @@
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>28</v>
@@ -3155,35 +3174,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="19" t="s">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E120" s="17" t="s">
+      <c r="D121" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F120" s="17" t="s">
+      <c r="F121" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G121" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-    </row>
-    <row r="122" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -3191,28 +3222,26 @@
       <c r="F122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B123" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124" s="11"/>
+    <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="B125" s="12"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
@@ -3220,122 +3249,124 @@
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
+      <c r="B126" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B127" s="13" t="s">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="12"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D128" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E128" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F128" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="G128" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="17" t="s">
+      <c r="D132" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F132" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G131" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-    </row>
-    <row r="133" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -3343,28 +3374,26 @@
       <c r="F133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B134" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="12"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135" s="11"/>
+    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="22" t="s">
-        <v>178</v>
-      </c>
+      <c r="B136" s="12"/>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
@@ -3372,65 +3401,55 @@
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="12"/>
+      <c r="B137" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="13" t="s">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="12"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C139" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D139" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E139" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F139" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G139" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>56</v>
@@ -3441,51 +3460,71 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G141" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G142" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="19" t="s">
+    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C142" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="17" t="s">
+      <c r="D143" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F143" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G142" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="26"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="28"/>
+      <c r="G143" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5D0977-895C-41E3-BF6E-9AC503561F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0EAFE-A5D1-42FC-8517-9BAC57118833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,8 +710,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Finalizar la lógica del carrito y preparar la base para la gestión de pedidos.</t>
+      <t xml:space="preserve"> Completar la lógica de pedidos integrando los métodos de pago y envío.</t>
     </r>
+  </si>
+  <si>
+    <t>Probar la integración de métodos</t>
   </si>
   <si>
     <r>
@@ -725,11 +728,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Completar la lógica de pedidos integrando los métodos de pago y envío.</t>
+      <t xml:space="preserve"> Finalizar la lógica del carrito y preparar la base para la gestión de pedidos</t>
     </r>
-  </si>
-  <si>
-    <t>Probar la integración de métodos</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1051,6 +1051,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,16 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,7 +1373,7 @@
   <dimension ref="B1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,38 +1391,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,7 +1998,7 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="9"/>
@@ -2017,30 +2010,30 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" s="11"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+        <v>179</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
       <c r="G44" s="11"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
     </row>
@@ -2048,16 +2041,16 @@
       <c r="B46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -2069,16 +2062,16 @@
       <c r="B47" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="35" t="s">
+      <c r="D47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="16" t="s">
@@ -2090,16 +2083,16 @@
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="35" t="s">
+      <c r="D48" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="16" t="s">
@@ -2111,16 +2104,16 @@
       <c r="B49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="35" t="s">
+      <c r="D49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="16" t="s">
@@ -2132,16 +2125,16 @@
       <c r="B50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="35" t="s">
+      <c r="D50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="16" t="s">
@@ -2153,16 +2146,16 @@
       <c r="B51" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="35" t="s">
+      <c r="D51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G51" s="16" t="s">
@@ -2222,30 +2215,30 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" s="11"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
+        <v>177</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
       <c r="G58" s="11"/>
       <c r="H58" s="7"/>
     </row>
@@ -2253,16 +2246,16 @@
       <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="14" t="s">
@@ -2274,16 +2267,16 @@
       <c r="B60" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="35" t="s">
+      <c r="D60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G60" s="16" t="s">
@@ -2295,16 +2288,16 @@
       <c r="B61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="35" t="s">
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -2316,16 +2309,16 @@
       <c r="B62" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="35" t="s">
+      <c r="D62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -2337,16 +2330,16 @@
       <c r="B63" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="35" t="s">
+      <c r="C63" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F63" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="16" t="s">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0EAFE-A5D1-42FC-8517-9BAC57118833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798FC6BB-70E5-406D-ABAE-346BA673D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,16 +2102,16 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>24</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>24</v>
@@ -2142,79 +2142,69 @@
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="6" t="s">
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>20</v>
-      </c>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+      <c r="B56" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -2223,9 +2213,7 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="B57" s="12"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -2233,37 +2221,49 @@
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58" s="11"/>
+    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>9</v>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>45</v>
       </c>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798FC6BB-70E5-406D-ABAE-346BA673D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CD1E6-C346-48B1-9C4D-9E56482526C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
   <dimension ref="B1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CD1E6-C346-48B1-9C4D-9E56482526C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556C568-11ED-40E1-A638-84E731901E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$H$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -991,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1057,13 +1057,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H144"/>
+  <dimension ref="B1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,73 +1411,65 @@
     <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>164</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -1464,60 +1477,48 @@
       <c r="G8" s="11"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
@@ -1529,10 +1530,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>176</v>
@@ -1550,10 +1551,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>176</v>
@@ -1569,12 +1570,12 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>176</v>
@@ -1590,37 +1591,49 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
+      <c r="G16" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -1629,30 +1642,28 @@
       <c r="G17"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>165</v>
-      </c>
+      <c r="B20" s="12"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1661,7 +1672,9 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+      <c r="B21" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1669,54 +1682,42 @@
       <c r="G21" s="11"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>176</v>
@@ -1734,16 +1735,16 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>22</v>
@@ -1755,16 +1756,16 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>22</v>
@@ -1774,37 +1775,49 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+      <c r="G28" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1813,30 +1826,28 @@
       <c r="G29"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
-        <v>166</v>
-      </c>
+    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1845,7 +1856,9 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
+      <c r="B33" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1853,60 +1866,48 @@
       <c r="G33" s="11"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G35" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>23</v>
@@ -1918,16 +1919,16 @@
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>23</v>
@@ -1939,16 +1940,16 @@
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>23</v>
@@ -1958,37 +1959,49 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
+      <c r="G40" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -1997,30 +2010,28 @@
       <c r="G41"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
-        <v>179</v>
-      </c>
+      <c r="B44" s="12"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -2029,7 +2040,9 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+      <c r="B45" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -2037,54 +2050,42 @@
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D47" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E47" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>61</v>
@@ -2096,43 +2097,43 @@
         <v>24</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>24</v>
@@ -2142,69 +2143,79 @@
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="D52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
+      <c r="G52" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="B56" s="12"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -2213,7 +2224,9 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
+      <c r="B57" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -2221,81 +2234,69 @@
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D59" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F59" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G59" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="D60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="G60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>25</v>
@@ -2307,10 +2308,10 @@
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>61</v>
@@ -2328,16 +2329,16 @@
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>25</v>
@@ -2347,37 +2348,49 @@
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="19" t="s">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="17" t="s">
+      <c r="D65" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F65" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
+      <c r="G65" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -2386,30 +2399,28 @@
       <c r="G66"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+    <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
-        <v>167</v>
-      </c>
+      <c r="B69" s="12"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
@@ -2418,7 +2429,9 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
+      <c r="B70" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
@@ -2426,102 +2439,90 @@
       <c r="G70" s="11"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C72" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D72" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E72" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F72" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G72" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>29</v>
@@ -2531,60 +2532,70 @@
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="17" t="s">
+      <c r="D77" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F77" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79" s="11"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
-        <v>170</v>
-      </c>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
@@ -2592,8 +2603,10 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
+    <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
@@ -2601,60 +2614,48 @@
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D83" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E83" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G83" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>30</v>
@@ -2664,12 +2665,12 @@
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>61</v>
@@ -2685,37 +2686,49 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="19" t="s">
+    <row r="86" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E86" s="17" t="s">
+      <c r="D87" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F87" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G86" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
+      <c r="G87" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2724,30 +2737,28 @@
       <c r="G88"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="12"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="22" t="s">
-        <v>171</v>
-      </c>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
@@ -2756,59 +2767,50 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
+      <c r="B92" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="12"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C94" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D94" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E94" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G94" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>61</v>
@@ -2825,16 +2827,16 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>26</v>
@@ -2845,10 +2847,10 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>61</v>
@@ -2865,10 +2867,10 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>61</v>
@@ -2883,35 +2885,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="19" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C100" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="17" t="s">
+      <c r="D100" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F100" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -2919,28 +2933,26 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
+    <row r="102" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="12"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103" s="11"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="22" t="s">
-        <v>172</v>
-      </c>
+      <c r="B104" s="12"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
@@ -2948,59 +2960,49 @@
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
+      <c r="B105" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="13" t="s">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="12"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C107" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D107" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E107" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F107" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G107" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>61</v>
@@ -3017,53 +3019,65 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C111" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="17" t="s">
+      <c r="D111" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F111" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G111" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -3071,28 +3085,26 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="12"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="22" t="s">
-        <v>173</v>
-      </c>
+      <c r="B115" s="12"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
@@ -3100,65 +3112,55 @@
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="12"/>
+      <c r="B116" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="12"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C118" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D118" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E118" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="F118" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G118" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>28</v>
@@ -3169,16 +3171,16 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>28</v>
@@ -3187,35 +3189,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="19" t="s">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C122" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E121" s="17" t="s">
+      <c r="D122" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E122" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F122" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G122" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-    </row>
-    <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -3223,28 +3237,26 @@
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
+    <row r="124" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="12"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125" s="11"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="B126" s="12"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
@@ -3252,122 +3264,124 @@
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
+      <c r="B127" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" s="11"/>
     </row>
-    <row r="128" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="13" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="12"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D129" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="23" t="s">
+      <c r="E129" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="23" t="s">
+      <c r="F129" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G129" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C133" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132" s="17" t="s">
+      <c r="D133" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E133" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F133" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G132" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-    </row>
-    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -3375,28 +3389,26 @@
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
+    <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="12"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="22" t="s">
-        <v>175</v>
-      </c>
+      <c r="B137" s="12"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
@@ -3404,65 +3416,55 @@
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="12"/>
+      <c r="B138" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B139" s="13" t="s">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="12"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C140" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D140" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E140" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="F140" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G140" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>56</v>
@@ -3473,55 +3475,75 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G142" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G143" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="19" t="s">
+    <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C144" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E143" s="17" t="s">
+      <c r="D144" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F144" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G143" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="26"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="28"/>
+      <c r="G144" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556C568-11ED-40E1-A638-84E731901E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDB62AB-248B-45C7-B16D-F8A7B0FC0A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="180">
   <si>
     <t>Columna</t>
   </si>
@@ -1054,15 +1055,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1078,10 +1070,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H145"/>
+  <dimension ref="B1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,37 +1414,37 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="40"/>
       <c r="H5" s="6"/>
     </row>
@@ -2513,16 +2514,16 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>29</v>
@@ -2532,70 +2533,60 @@
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="6" t="s">
+    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
+    <row r="78" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="12"/>
+    <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
@@ -2603,10 +2594,8 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
-        <v>170</v>
-      </c>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
@@ -2614,48 +2603,60 @@
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="12"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82" s="11"/>
+    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>9</v>
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>30</v>
@@ -2665,70 +2666,58 @@
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="31" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" s="33" t="s">
+    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G86" s="34" t="s">
+      <c r="G86" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>20</v>
-      </c>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2737,28 +2726,30 @@
       <c r="G88"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
+    <row r="89" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
@@ -2767,50 +2758,59 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="22" t="s">
-        <v>171</v>
-      </c>
+      <c r="B92" s="12"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="12"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="13" t="s">
+    </row>
+    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C93" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E93" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="23" t="s">
+      <c r="F93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G93" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>61</v>
@@ -2827,16 +2827,16 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>26</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>61</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>61</v>
@@ -2885,47 +2885,35 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F99" s="6" t="s">
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -2933,26 +2921,28 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-    </row>
-    <row r="103" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+    <row r="102" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="10"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
+      <c r="B104" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
@@ -2960,49 +2950,59 @@
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="22" t="s">
-        <v>172</v>
-      </c>
+      <c r="B105" s="12"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="12"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="13" t="s">
+    <row r="106" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D106" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="F106" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G106" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>61</v>
@@ -3019,65 +3019,53 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G109" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -3085,26 +3073,28 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-    </row>
-    <row r="114" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
+    <row r="113" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="12"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="12"/>
+      <c r="B115" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
@@ -3112,55 +3102,65 @@
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="22" t="s">
-        <v>173</v>
-      </c>
+      <c r="B116" s="12"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="12"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="13" t="s">
+    <row r="117" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="23" t="s">
+      <c r="D117" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E117" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F118" s="23" t="s">
+      <c r="F117" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G117" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>28</v>
@@ -3171,16 +3171,16 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>28</v>
@@ -3189,47 +3189,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F121" s="6" t="s">
+    <row r="121" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F121" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G121" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" s="18" t="s">
+      <c r="G121" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -3237,26 +3225,28 @@
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-    </row>
-    <row r="125" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
+    <row r="124" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="10"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="12"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
+      <c r="B126" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
@@ -3264,124 +3254,122 @@
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="B127" s="12"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" s="11"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128" s="11"/>
-    </row>
-    <row r="129" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="13" t="s">
+    <row r="128" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D128" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="E128" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F129" s="23" t="s">
+      <c r="F128" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="G128" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F132" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G132" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -3389,26 +3377,28 @@
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-    </row>
-    <row r="136" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B136" s="8" t="s">
+    <row r="135" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="10"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="12"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="12"/>
+      <c r="B137" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
@@ -3416,55 +3406,65 @@
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="22" t="s">
-        <v>175</v>
-      </c>
+      <c r="B138" s="12"/>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="12"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139" s="11"/>
-    </row>
-    <row r="140" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
+    <row r="139" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C139" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D139" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E139" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="23" t="s">
+      <c r="F139" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G139" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>56</v>
@@ -3475,71 +3475,51 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F143" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G143" s="16" t="s">
-        <v>90</v>
+      <c r="G143" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="26"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="28"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDB62AB-248B-45C7-B16D-F8A7B0FC0A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F686E-0B99-457C-9921-8A57F7B283FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -586,55 +585,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gestión de estados y devoluciones.</t>
-    </r>
-  </si>
-  <si>
     <t>HT-053</t>
   </si>
   <si>
     <t>Implementar auditoría del sistema</t>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Implementar funcionalidades adicionales y mejorar el flujo de gestión de promociones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Diseñar y conectar las pantallas de la interfaz de usuario.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -730,6 +684,51 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Finalizar la lógica del carrito y preparar la base para la gestión de pedidos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Diseñar y conectar las pantallas de la interfaz de usuario, validar las promociones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gestión de estados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implementar funcionalidades de devoluciones y gestión de promociones.</t>
     </r>
   </si>
 </sst>
@@ -835,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -939,17 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -992,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1035,9 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1046,12 +1031,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1068,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:G76"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,42 +1405,42 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="9"/>
@@ -1468,7 +1459,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C8"/>
@@ -1491,16 +1482,16 @@
       <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1516,7 +1507,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>62</v>
@@ -1537,7 +1528,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>64</v>
@@ -1558,7 +1549,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>64</v>
@@ -1579,7 +1570,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1600,7 +1591,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>64</v>
@@ -1621,7 +1612,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>64</v>
@@ -1653,7 +1644,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="9"/>
@@ -1673,7 +1664,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C21"/>
@@ -1696,16 +1687,16 @@
       <c r="B23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -1721,7 +1712,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>71</v>
@@ -1742,7 +1733,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>71</v>
@@ -1763,7 +1754,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>64</v>
@@ -1784,7 +1775,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>62</v>
@@ -1805,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -1837,7 +1828,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="9"/>
@@ -1857,7 +1848,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C33"/>
@@ -1880,16 +1871,16 @@
       <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="14" t="s">
@@ -1905,7 +1896,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>71</v>
@@ -1926,7 +1917,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>79</v>
@@ -1947,7 +1938,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>71</v>
@@ -1968,7 +1959,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>62</v>
@@ -1989,7 +1980,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>83</v>
@@ -2021,7 +2012,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="9"/>
@@ -2041,8 +2032,8 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
-        <v>179</v>
+      <c r="B45" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2064,16 +2055,16 @@
       <c r="B47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -2205,7 +2196,7 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C55" s="9"/>
@@ -2217,30 +2208,30 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="11"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
+      <c r="B57" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="11"/>
       <c r="H58" s="7"/>
     </row>
@@ -2248,16 +2239,16 @@
       <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="39" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="14" t="s">
@@ -2269,17 +2260,17 @@
       <c r="B60" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D60" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>24</v>
+      <c r="F60" s="40" t="s">
+        <v>25</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>20</v>
@@ -2290,16 +2281,16 @@
       <c r="B61" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D61" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -2311,16 +2302,16 @@
       <c r="B62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -2328,669 +2319,654 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+    <row r="63" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="D63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
       <c r="G69" s="11"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="s">
+    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="C82" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="17" t="s">
+      <c r="F82" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>20</v>
-      </c>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>20</v>
-      </c>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>20</v>
-      </c>
+    <row r="86" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87"/>
+      <c r="B87" s="12"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87"/>
+      <c r="G87" s="11"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88"/>
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="21" t="s">
+        <v>177</v>
+      </c>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88"/>
+      <c r="G88" s="11"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="12"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C90" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D90" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E90" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F90" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G90" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="12"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="12"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E96" s="6" t="s">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="16" t="s">
+      <c r="F105" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="19" t="s">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C106" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="17" t="s">
+      <c r="D106" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F99" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-    </row>
-    <row r="102" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="12"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>9</v>
+      <c r="F106" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="D107" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>27</v>
       </c>
       <c r="G107" s="16" t="s">
@@ -3001,16 +2977,16 @@
       <c r="B108" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F108" s="6" t="s">
+      <c r="D108" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="40" t="s">
         <v>27</v>
       </c>
       <c r="G108" s="16" t="s">
@@ -3021,16 +2997,16 @@
       <c r="B109" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E109" s="6" t="s">
+      <c r="D109" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="40" t="s">
         <v>27</v>
       </c>
       <c r="G109" s="16" t="s">
@@ -3092,8 +3068,8 @@
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="22" t="s">
-        <v>173</v>
+      <c r="B115" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -3113,16 +3089,16 @@
       <c r="B117" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="F117" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="14" t="s">
@@ -3244,8 +3220,8 @@
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="22" t="s">
-        <v>174</v>
+      <c r="B126" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -3265,16 +3241,16 @@
       <c r="B128" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="23" t="s">
+      <c r="E128" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="23" t="s">
+      <c r="F128" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="14" t="s">
@@ -3396,8 +3372,8 @@
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="22" t="s">
-        <v>175</v>
+      <c r="B137" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3417,16 +3393,16 @@
       <c r="B139" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="F139" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="14" t="s">
@@ -3514,12 +3490,12 @@
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="26"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="28"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F686E-0B99-457C-9921-8A57F7B283FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDB62AB-248B-45C7-B16D-F8A7B0FC0A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -585,10 +586,55 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gestión de estados y devoluciones.</t>
+    </r>
+  </si>
+  <si>
     <t>HT-053</t>
   </si>
   <si>
     <t>Implementar auditoría del sistema</t>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implementar funcionalidades adicionales y mejorar el flujo de gestión de promociones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Diseñar y conectar las pantallas de la interfaz de usuario.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -684,51 +730,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Finalizar la lógica del carrito y preparar la base para la gestión de pedidos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Diseñar y conectar las pantallas de la interfaz de usuario, validar las promociones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gestión de estados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Implementar funcionalidades de devoluciones y gestión de promociones.</t>
     </r>
   </si>
 </sst>
@@ -834,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -938,6 +939,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -980,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1023,6 +1035,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1031,8 +1046,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1068,16 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,42 +1414,42 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C8"/>
@@ -1482,16 +1491,16 @@
       <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1507,7 +1516,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>62</v>
@@ -1528,7 +1537,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>64</v>
@@ -1549,7 +1558,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>64</v>
@@ -1570,7 +1579,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1591,7 +1600,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>64</v>
@@ -1612,7 +1621,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>64</v>
@@ -1644,7 +1653,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="9"/>
@@ -1664,7 +1673,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C21"/>
@@ -1687,16 +1696,16 @@
       <c r="B23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -1712,7 +1721,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>71</v>
@@ -1733,7 +1742,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>71</v>
@@ -1754,7 +1763,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>64</v>
@@ -1775,7 +1784,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>62</v>
@@ -1796,7 +1805,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -1828,7 +1837,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="9"/>
@@ -1848,7 +1857,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C33"/>
@@ -1871,16 +1880,16 @@
       <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="14" t="s">
@@ -1896,7 +1905,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>71</v>
@@ -1917,7 +1926,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>79</v>
@@ -1938,7 +1947,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>71</v>
@@ -1959,7 +1968,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>62</v>
@@ -1980,7 +1989,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>83</v>
@@ -2012,7 +2021,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="9"/>
@@ -2032,8 +2041,8 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
-        <v>176</v>
+      <c r="B45" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2055,16 +2064,16 @@
       <c r="B47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -2196,7 +2205,7 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C55" s="9"/>
@@ -2208,30 +2217,30 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" s="11"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
+      <c r="B57" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
       <c r="G58" s="11"/>
       <c r="H58" s="7"/>
     </row>
@@ -2239,16 +2248,16 @@
       <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="14" t="s">
@@ -2260,17 +2269,17 @@
       <c r="B60" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="40" t="s">
+      <c r="D60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="40" t="s">
-        <v>25</v>
+      <c r="F60" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>20</v>
@@ -2281,16 +2290,16 @@
       <c r="B61" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="40" t="s">
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="16" t="s">
@@ -2302,16 +2311,16 @@
       <c r="B62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="40" t="s">
+      <c r="D62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -2319,654 +2328,669 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="19" t="s">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="17" t="s">
+      <c r="D63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
+    <row r="65" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
       <c r="G69" s="11"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C72" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D72" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E72" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F72" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G72" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="40" t="s">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G71" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="40" t="s">
+      <c r="G73" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="17" t="s">
+      <c r="F84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="12"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="40" t="s">
+      <c r="F85" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G80" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="40" t="s">
+      <c r="G85" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F81" s="40" t="s">
+      <c r="F86" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10"/>
+      <c r="G86" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="12"/>
+      <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="11"/>
+      <c r="G87"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
-        <v>177</v>
-      </c>
+    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="11"/>
+      <c r="G88"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="12"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="13" t="s">
+    <row r="89" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E93" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G93" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F95" s="27" t="s">
+      <c r="E95" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E96" s="17" t="s">
+      <c r="G95" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="18" t="s">
-        <v>20</v>
+      <c r="G96" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-    </row>
-    <row r="99" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+      <c r="B97" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="12"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="13" t="s">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="12"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C106" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="39" t="s">
+      <c r="D106" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="39" t="s">
+      <c r="E106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="39" t="s">
+      <c r="F106" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G106" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="40" t="s">
+      <c r="C107" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F107" s="40" t="s">
+      <c r="D107" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G107" s="16" t="s">
@@ -2977,16 +3001,16 @@
       <c r="B108" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="40" t="s">
+      <c r="C108" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F108" s="40" t="s">
+      <c r="D108" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G108" s="16" t="s">
@@ -2997,16 +3021,16 @@
       <c r="B109" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="40" t="s">
+      <c r="C109" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E109" s="40" t="s">
+      <c r="D109" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="40" t="s">
+      <c r="F109" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G109" s="16" t="s">
@@ -3068,8 +3092,8 @@
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="21" t="s">
-        <v>170</v>
+      <c r="B115" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -3089,16 +3113,16 @@
       <c r="B117" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F117" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="14" t="s">
@@ -3220,8 +3244,8 @@
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="21" t="s">
-        <v>171</v>
+      <c r="B126" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -3241,16 +3265,16 @@
       <c r="B128" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="E128" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F128" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="14" t="s">
@@ -3372,8 +3396,8 @@
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="21" t="s">
-        <v>172</v>
+      <c r="B137" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3393,16 +3417,16 @@
       <c r="B139" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D139" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="22" t="s">
+      <c r="E139" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="22" t="s">
+      <c r="F139" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="14" t="s">
@@ -3490,12 +3514,12 @@
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="23"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="25"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDB62AB-248B-45C7-B16D-F8A7B0FC0A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EB52B-F50B-4CF1-9849-D31EC4CD7E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -835,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -949,50 +948,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1049,9 +1009,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1044,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:G76"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,38 +1379,38 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2021,7 +1986,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="9"/>
@@ -2676,13 +2641,13 @@
       <c r="D85" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="7"/>
@@ -3389,44 +3354,44 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="12"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="40"/>
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="40"/>
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="12"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="40"/>
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B139" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="F139" s="41" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="14" t="s">
@@ -3437,16 +3402,16 @@
       <c r="B140" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E140" s="6" t="s">
+      <c r="D140" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G140" s="16" t="s">
@@ -3457,16 +3422,16 @@
       <c r="B141" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E141" s="6" t="s">
+      <c r="D141" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E141" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G141" s="16" t="s">
@@ -3477,16 +3442,16 @@
       <c r="B142" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="6" t="s">
+      <c r="D142" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G142" s="16" t="s">
@@ -3513,13 +3478,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="26"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="28"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EB52B-F50B-4CF1-9849-D31EC4CD7E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784FF22-B55F-44CA-9599-1B19E5DCBAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,21 +632,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Diseñar y conectar las pantallas de la interfaz de usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Refinar la funcionalidad de gestión de estados y pruebas adicionales.</t>
     </r>
   </si>
@@ -729,6 +714,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Finalizar la lógica del carrito y preparar la base para la gestión de pedidos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Completar la lógica de poromociones, diseñar y conectar las pantallas de la interfaz de usuario.</t>
     </r>
   </si>
 </sst>
@@ -834,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -937,22 +937,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -995,9 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,17 +991,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,14 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H144"/>
+  <dimension ref="B1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,42 +1357,42 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="9"/>
@@ -1433,7 +1411,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C8"/>
@@ -1456,16 +1434,16 @@
       <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1481,7 +1459,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>62</v>
@@ -1502,7 +1480,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>64</v>
@@ -1523,7 +1501,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>64</v>
@@ -1544,7 +1522,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1565,7 +1543,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>64</v>
@@ -1586,7 +1564,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>64</v>
@@ -1618,7 +1596,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="9"/>
@@ -1638,7 +1616,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C21"/>
@@ -1661,16 +1639,16 @@
       <c r="B23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -1686,7 +1664,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>71</v>
@@ -1707,7 +1685,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>71</v>
@@ -1728,7 +1706,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>64</v>
@@ -1749,7 +1727,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>62</v>
@@ -1770,7 +1748,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -1802,7 +1780,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="9"/>
@@ -1822,7 +1800,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C33"/>
@@ -1845,16 +1823,16 @@
       <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="14" t="s">
@@ -1870,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>71</v>
@@ -1891,7 +1869,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>79</v>
@@ -1912,7 +1890,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>71</v>
@@ -1933,7 +1911,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>62</v>
@@ -1954,7 +1932,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>83</v>
@@ -1986,7 +1964,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="9"/>
@@ -2006,8 +1984,8 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
-        <v>179</v>
+      <c r="B45" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2029,16 +2007,16 @@
       <c r="B47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -2170,7 +2148,7 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C55" s="9"/>
@@ -2190,8 +2168,8 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>177</v>
+      <c r="B57" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2213,16 +2191,16 @@
       <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="14" t="s">
@@ -2293,67 +2271,31 @@
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+    <row r="63" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="D63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>20</v>
-      </c>
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2317,7 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="9"/>
@@ -2395,7 +2337,7 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C70"/>
@@ -2418,16 +2360,16 @@
       <c r="B72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="14" t="s">
@@ -2437,19 +2379,19 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>20</v>
@@ -2458,37 +2400,37 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>29</v>
@@ -2498,60 +2440,57 @@
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="17" t="s">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="18" t="s">
-        <v>20</v>
+      <c r="G76" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="12"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79" s="11"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
-        <v>170</v>
-      </c>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
@@ -2559,8 +2498,10 @@
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
+    <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="21" t="s">
+        <v>170</v>
+      </c>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
@@ -2568,102 +2509,90 @@
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D83" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E83" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F83" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G83" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="15" t="s">
-        <v>114</v>
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="28" t="s">
+      <c r="E85" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>61</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>30</v>
@@ -2674,15 +2603,9 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2691,30 +2614,28 @@
       <c r="G88"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="12"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="22" t="s">
-        <v>171</v>
-      </c>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
@@ -2723,85 +2644,76 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
+      <c r="B92" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="12"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C94" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D94" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E94" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F94" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G94" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>26</v>
@@ -2812,16 +2724,16 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>26</v>
@@ -2830,55 +2742,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="6" t="s">
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -2886,28 +2770,26 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
+    <row r="102" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="12"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103" s="11"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="10"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="22" t="s">
-        <v>172</v>
-      </c>
+      <c r="B104" s="12"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
@@ -2915,79 +2797,69 @@
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
+      <c r="B105" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="13" t="s">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="12"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C107" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D107" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E107" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F107" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G107" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>90</v>
+      <c r="E108" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>61</v>
@@ -2996,495 +2868,607 @@
         <v>71</v>
       </c>
       <c r="F109" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="19" t="s">
+      <c r="G110" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C113" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="17" t="s">
+      <c r="D113" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F113" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G113" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-    </row>
-    <row r="113" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
-    </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="12"/>
+      <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="22" t="s">
-        <v>173</v>
-      </c>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="12"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="12"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="12"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C120" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D120" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E120" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="F120" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G120" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="D124" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="15" t="s">
+      <c r="G124" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E119" s="6" t="s">
+      <c r="D125" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F125" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G119" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="15" t="s">
+      <c r="G125" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E120" s="6" t="s">
+      <c r="D126" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G120" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="19" t="s">
+      <c r="G126" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C127" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E121" s="17" t="s">
+      <c r="D127" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E127" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F127" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G127" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-    </row>
-    <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-    </row>
-    <row r="124" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="12"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125" s="11"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127" s="11"/>
-    </row>
-    <row r="128" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F132" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="B131" s="12"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133"/>
+      <c r="B133" s="12"/>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
       <c r="F133"/>
-      <c r="G133"/>
-    </row>
-    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-    </row>
-    <row r="135" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="12"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="11"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="11"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="12"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="11"/>
-    </row>
-    <row r="139" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B139" s="13" t="s">
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="12"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142" s="11"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143" s="11"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="12"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144" s="11"/>
+    </row>
+    <row r="145" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="C145" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="41" t="s">
+      <c r="D145" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="E145" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="41" t="s">
+      <c r="F145" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G145" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="15" t="s">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C140" s="38" t="s">
+      <c r="C146" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D140" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E140" s="38" t="s">
+      <c r="D146" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F140" s="38" t="s">
+      <c r="F146" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G140" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="15" t="s">
+      <c r="G146" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C147" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D141" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E141" s="38" t="s">
+      <c r="D147" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F141" s="38" t="s">
+      <c r="F147" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G141" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="15" t="s">
+      <c r="G147" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C148" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D142" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="38" t="s">
+      <c r="D148" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F142" s="38" t="s">
+      <c r="F148" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G142" s="16" t="s">
+      <c r="G148" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="19" t="s">
+    <row r="149" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C149" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E143" s="17" t="s">
+      <c r="D149" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E149" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F149" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G143" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
+      <c r="G149" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784FF22-B55F-44CA-9599-1B19E5DCBAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042D644-75E0-4A16-85BE-D3C010A0CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2222,7 @@
         <v>62</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>20</v>
@@ -2391,7 +2391,7 @@
         <v>101</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>20</v>
@@ -2412,7 +2412,7 @@
         <v>62</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>20</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="15" t="s">
         <v>108</v>
       </c>
@@ -2552,15 +2552,15 @@
       <c r="E84" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>29</v>
+      <c r="F84" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="26" t="s">
         <v>168</v>
       </c>
@@ -2573,8 +2573,8 @@
       <c r="E85" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>29</v>
+      <c r="F85" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>20</v>
@@ -2696,7 +2696,7 @@
         <v>62</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>20</v>
@@ -2847,8 +2847,8 @@
       <c r="E108" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F108" s="27" t="s">
-        <v>30</v>
+      <c r="F108" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G108" s="24" t="s">
         <v>20</v>
@@ -2868,7 +2868,7 @@
         <v>71</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>20</v>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042D644-75E0-4A16-85BE-D3C010A0CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E348F220-AEA5-42B0-AC0B-8D44FF6E7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -834,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -937,11 +937,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -994,16 +1106,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,11 +1133,145 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1337,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,38 +1593,38 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,7 +1657,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1430,149 +1666,149 @@
       <c r="G9" s="11"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="6"/>
@@ -1608,10 +1844,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="11"/>
       <c r="H20" s="6"/>
     </row>
@@ -1619,144 +1855,144 @@
       <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="11"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="11"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="6"/>
@@ -1792,10 +2028,10 @@
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="11"/>
       <c r="H32" s="6"/>
     </row>
@@ -1803,144 +2039,144 @@
       <c r="B33" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="11"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="11"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="6"/>
@@ -1976,10 +2212,10 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="11"/>
       <c r="H44" s="6"/>
     </row>
@@ -1987,144 +2223,144 @@
       <c r="B45" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="11"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+    <row r="47" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+    <row r="48" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="36" t="s">
         <v>90</v>
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="17" t="s">
+      <c r="D52" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="6"/>
@@ -2160,10 +2396,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="11"/>
       <c r="H56" s="7"/>
     </row>
@@ -2171,123 +2407,123 @@
       <c r="B57" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="11"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+    <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D60" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
+    <row r="61" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D61" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+    <row r="62" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="17" t="s">
+      <c r="D63" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7"/>
@@ -2329,10 +2565,10 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="11"/>
       <c r="H69" s="7"/>
     </row>
@@ -2340,134 +2576,134 @@
       <c r="B70" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="11"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="11"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+    <row r="72" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+    <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="D73" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="D74" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
+    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="6" t="s">
+      <c r="D75" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
+    <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="6" t="s">
+      <c r="D76" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="37" t="s">
         <v>90</v>
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="19"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2491,10 +2727,10 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
     </row>
@@ -2502,102 +2738,102 @@
       <c r="B81" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
       <c r="G82" s="11"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
+    <row r="83" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="D84" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="26" t="s">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="D85" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E86" s="17" t="s">
+      <c r="D86" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="7"/>
@@ -2654,7 +2890,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="12"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -2662,103 +2898,103 @@
       <c r="F93"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="13" t="s">
+    <row r="94" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="15" t="s">
+    <row r="95" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="D95" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E95" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="s">
+      <c r="G95" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E96" s="6" t="s">
+      <c r="D96" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="15" t="s">
+    <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97" s="6" t="s">
+      <c r="D97" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="17" t="s">
+      <c r="D98" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2790,167 +3026,167 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="12"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="13" t="s">
+    <row r="107" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F107" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="15" t="s">
+    <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F108" s="6" t="s">
+      <c r="E109" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G108" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" s="6" t="s">
+      <c r="G109" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E110" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F112" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="G112" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E113" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="18" t="s">
+      <c r="G113" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3040,7 +3276,7 @@
         <v>71</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>90</v>
@@ -3060,7 +3296,7 @@
         <v>71</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>90</v>
@@ -3080,7 +3316,7 @@
         <v>101</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>20</v>
@@ -3475,6 +3711,56 @@
     <mergeCell ref="B2:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B11:G16">
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>$D11="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:G28">
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>$D24="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:G40">
+    <cfRule type="expression" dxfId="11" priority="8">
+      <formula>$D36="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:G52">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>$D48="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:G63">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$D60="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:G76">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$D73="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:G86">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$D84="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:G98">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$D95="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:G108">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D108="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109:G113">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D109="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E348F220-AEA5-42B0-AC0B-8D44FF6E7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2745C-31AB-4207-B876-2F0ECEED8C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="179">
   <si>
     <t>Columna</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>Añadir validaciones para la gestión de inventarios</t>
-  </si>
-  <si>
-    <t>Probar integración de promociones e inventarios</t>
   </si>
   <si>
     <t>Sprint 8 (7 de enero - 13 de enero de 2025)</t>
@@ -1053,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1106,6 +1103,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,95 +1160,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1571,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H149"/>
+  <dimension ref="B1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,38 +1536,38 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1648,7 +1591,7 @@
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1667,148 +1610,148 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="36" t="s">
+      <c r="D15" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="37" t="s">
+      <c r="D16" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="6"/>
@@ -1844,155 +1787,155 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" s="11"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+        <v>164</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" s="11"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" s="11"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="36" t="s">
+      <c r="D25" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="37" t="s">
+      <c r="D28" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="6"/>
@@ -2028,155 +1971,155 @@
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" s="11"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+        <v>165</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" s="11"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" s="11"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="35" t="s">
+      <c r="D36" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="36" t="s">
+      <c r="D37" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="36" t="s">
+      <c r="D38" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="36" t="s">
+      <c r="D39" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="37" t="s">
+      <c r="D40" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="6"/>
@@ -2212,155 +2155,155 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
       <c r="G44" s="11"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
+        <v>177</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" s="11"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
       <c r="G46" s="11"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="35" t="s">
+      <c r="D48" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="35" t="s">
+      <c r="G48" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="36" t="s">
+      <c r="D49" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="27" t="s">
         <v>90</v>
       </c>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="36" t="s">
+      <c r="D50" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="36" t="s">
+      <c r="D51" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="37" t="s">
+      <c r="D52" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="6"/>
@@ -2396,134 +2339,134 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" s="11"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
+        <v>175</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57" s="11"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
       <c r="G58" s="11"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="35" t="s">
+      <c r="D60" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="35" t="s">
+      <c r="G60" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="36" t="s">
+      <c r="D61" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="36" t="s">
+      <c r="G61" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="36" t="s">
+      <c r="D62" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="37" t="s">
+      <c r="D63" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="7"/>
@@ -2565,145 +2508,144 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
       <c r="G69" s="11"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
+        <v>166</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
       <c r="G70" s="11"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
       <c r="G71" s="11"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="35" t="s">
+      <c r="C73" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="F73" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="35" t="s">
+      <c r="G73" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" s="36" t="s">
+      <c r="D74" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G74" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E75" s="36" t="s">
+      <c r="D75" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="37" t="s">
+      <c r="D76" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F76" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="28" t="s">
         <v>90</v>
       </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2727,130 +2669,141 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
       <c r="G80" s="11"/>
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
+        <v>169</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
       <c r="G81" s="11"/>
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
       <c r="G82" s="11"/>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
+    <row r="84" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="35" t="s">
+      <c r="D84" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="35" t="s">
+      <c r="F84" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G84" s="35" t="s">
+      <c r="G84" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="39" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" s="36" t="s">
+      <c r="D86" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="F86" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="40" t="s">
+      <c r="G86" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C87" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="37" t="s">
+      <c r="D87" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F86" s="37" t="s">
+      <c r="F87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G86" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -2859,30 +2812,28 @@
       <c r="G89"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
+    <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91" s="11"/>
+    <row r="91" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
-        <v>179</v>
-      </c>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
@@ -2890,123 +2841,126 @@
       <c r="G92" s="11"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="12"/>
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="33" t="s">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C95" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D95" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E95" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F95" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G95" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="38" t="s">
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C96" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D95" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" s="35" t="s">
+      <c r="D96" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F96" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="39" t="s">
+      <c r="G96" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C97" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="36" t="s">
+      <c r="D98" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="36" t="s">
+      <c r="F98" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="36" t="s">
+      <c r="G98" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="36" t="s">
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F97" s="36" t="s">
+      <c r="C99" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G97" s="36" t="s">
+      <c r="G99" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-    </row>
-    <row r="102" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -3014,183 +2968,159 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+    <row r="103" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="12"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="12"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="10"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="12"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F108" s="35" t="s">
+      <c r="C109" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G108" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" s="36" t="s">
+      <c r="G109" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E110" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="36" t="s">
+      <c r="F111" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C110" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="36" t="s">
+      <c r="G111" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F110" s="36" t="s">
+      <c r="E112" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="36" t="s">
+      <c r="G112" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E112" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E113" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F113" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -3198,26 +3128,28 @@
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-    </row>
-    <row r="116" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B116" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="10"/>
+    <row r="115" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="12"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="12"/>
+      <c r="B117" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
@@ -3225,49 +3157,59 @@
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="21" t="s">
-        <v>172</v>
-      </c>
+      <c r="B118" s="12"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" s="13" t="s">
+    <row r="119" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C119" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D119" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E119" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F119" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G119" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>61</v>
@@ -3284,36 +3226,36 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>28</v>
@@ -3324,16 +3266,16 @@
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>28</v>
@@ -3344,16 +3286,16 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>28</v>
@@ -3362,47 +3304,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="6" t="s">
+    <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="C126" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F126" s="6" t="s">
+      <c r="E126" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F126" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G126" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E127" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" s="18" t="s">
+      <c r="G126" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -3410,26 +3340,28 @@
       <c r="F128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-    </row>
-    <row r="130" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B130" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="10"/>
+    <row r="129" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="12"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="12"/>
+      <c r="B131" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
@@ -3437,124 +3369,122 @@
       <c r="G131" s="11"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="21" t="s">
-        <v>173</v>
-      </c>
+      <c r="B132" s="12"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="12"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133" s="11"/>
-    </row>
-    <row r="134" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B134" s="13" t="s">
+    <row r="133" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C133" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D133" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="E133" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="F133" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G133" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C137" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="C137" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="E137" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F137" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G137" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -3562,26 +3492,28 @@
       <c r="F139"/>
       <c r="G139"/>
     </row>
-    <row r="140" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-    </row>
-    <row r="141" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="10"/>
+    <row r="140" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="12"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="12"/>
+      <c r="B142" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
@@ -3589,55 +3521,65 @@
       <c r="G142" s="11"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="21" t="s">
-        <v>174</v>
-      </c>
+      <c r="B143" s="12"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" s="11"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="12"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144" s="11"/>
-    </row>
-    <row r="145" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="13" t="s">
+    <row r="144" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B144" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C144" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D144" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="22" t="s">
+      <c r="E144" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F144" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G145" s="14" t="s">
+      <c r="G144" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>56</v>
@@ -3648,61 +3590,41 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C148" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="C148" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F148" s="6" t="s">
+      <c r="E148" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F148" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G148" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G149" s="18" t="s">
+      <c r="G148" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3711,54 +3633,39 @@
     <mergeCell ref="B2:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B11:G16">
-    <cfRule type="expression" dxfId="13" priority="10">
+  <conditionalFormatting sqref="B11:G16 B109:G112 B84:G87">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D11="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:G28">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$D24="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:G40">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D36="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:G52">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$D48="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:G63">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D60="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:G76">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$D73="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:G86">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$D84="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:G98">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$D95="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:G108">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D108="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B109:G113">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D109="Hecho"</formula>
+  <conditionalFormatting sqref="B96:G99">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$D96="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2745C-31AB-4207-B876-2F0ECEED8C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B424A-18DE-4026-B299-61A78067157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="180">
   <si>
     <t>Columna</t>
   </si>
@@ -614,21 +614,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Implementar funcionalidades adicionales y mejorar el flujo de gestión de promociones.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Refinar la funcionalidad de gestión de estados y pruebas adicionales.</t>
     </r>
   </si>
@@ -727,6 +712,24 @@
       </rPr>
       <t xml:space="preserve"> Completar la lógica de poromociones, diseñar y conectar las pantallas de la interfaz de usuario.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Implementar funcionalidades adicionales y mejorar el flujo de devoluciones</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1516,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1641,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>62</v>
@@ -1659,7 +1662,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>64</v>
@@ -1680,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>64</v>
@@ -1701,7 +1704,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>64</v>
@@ -1722,7 +1725,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>64</v>
@@ -1743,7 +1746,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>64</v>
@@ -1843,7 +1846,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>71</v>
@@ -1864,7 +1867,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>71</v>
@@ -1885,7 +1888,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>64</v>
@@ -1906,7 +1909,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>62</v>
@@ -1927,7 +1930,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>71</v>
@@ -2027,7 +2030,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>71</v>
@@ -2048,7 +2051,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>79</v>
@@ -2069,7 +2072,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>71</v>
@@ -2090,7 +2093,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>62</v>
@@ -2111,7 +2114,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>83</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2211,7 +2214,7 @@
         <v>85</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>71</v>
@@ -2232,7 +2235,7 @@
         <v>89</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>71</v>
@@ -2253,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>83</v>
@@ -2274,7 +2277,7 @@
         <v>93</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>62</v>
@@ -2295,7 +2298,7 @@
         <v>95</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>62</v>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2395,7 +2398,7 @@
         <v>87</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>62</v>
@@ -2416,7 +2419,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>79</v>
@@ -2437,7 +2440,7 @@
         <v>97</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>71</v>
@@ -2458,7 +2461,7 @@
         <v>99</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>71</v>
@@ -2561,10 +2564,10 @@
         <v>100</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>101</v>
@@ -2585,7 +2588,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74" s="27" t="s">
         <v>62</v>
@@ -2606,7 +2609,7 @@
         <v>104</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" s="27" t="s">
         <v>62</v>
@@ -2627,7 +2630,7 @@
         <v>105</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>79</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2688,7 +2691,9 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12"/>
+      <c r="B82" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
@@ -2725,7 +2730,7 @@
         <v>109</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>71</v>
@@ -2746,7 +2751,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>62</v>
@@ -2766,7 +2771,7 @@
         <v>168</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>79</v>
@@ -2787,7 +2792,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>79</v>
@@ -2843,7 +2848,7 @@
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2888,7 +2893,7 @@
         <v>113</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>62</v>
@@ -2908,7 +2913,7 @@
         <v>117</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>64</v>
@@ -2928,7 +2933,7 @@
         <v>118</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E98" s="27" t="s">
         <v>64</v>
@@ -2948,7 +2953,7 @@
         <v>120</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>71</v>
@@ -2996,7 +3001,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -3148,7 +3153,7 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
@@ -3360,7 +3365,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -3512,7 +3517,7 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -3633,7 +3638,7 @@
     <mergeCell ref="B2:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B11:G16 B109:G112 B84:G87">
+  <conditionalFormatting sqref="B11:G16 B84:G87 B109:G112">
     <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D11="Hecho"</formula>
     </cfRule>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B424A-18DE-4026-B299-61A78067157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED8D62-6F0B-416E-989E-4F3BF819B6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="176">
   <si>
     <t>Columna</t>
   </si>
@@ -459,22 +460,10 @@
     <t>Sprint 10 (21 de enero - 27 de enero de 2025)</t>
   </si>
   <si>
-    <t>HT-041</t>
-  </si>
-  <si>
-    <t>Implementar pruebas de carga en las funcionalidades</t>
-  </si>
-  <si>
     <t>HT-042</t>
   </si>
   <si>
     <t>Probar la integración entre capas</t>
-  </si>
-  <si>
-    <t>HT-043</t>
-  </si>
-  <si>
-    <t>Documentar los casos de prueba realizados</t>
   </si>
   <si>
     <t>HT-044</t>
@@ -614,21 +603,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Refinar la funcionalidad de gestión de estados y pruebas adicionales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Realizar pruebas completas e integración final.</t>
     </r>
   </si>
@@ -730,6 +704,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Refinar la funcionalidad de gestión de estados e historial de pedidos.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1517,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H148"/>
+  <dimension ref="B1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1583,7 @@
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1641,7 +1630,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>62</v>
@@ -1662,7 +1651,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>64</v>
@@ -1683,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>64</v>
@@ -1704,7 +1693,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>64</v>
@@ -1725,7 +1714,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>64</v>
@@ -1746,7 +1735,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>64</v>
@@ -1799,7 +1788,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1846,7 +1835,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>71</v>
@@ -1867,7 +1856,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>71</v>
@@ -1888,7 +1877,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>64</v>
@@ -1909,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>62</v>
@@ -1930,7 +1919,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>71</v>
@@ -1983,7 +1972,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -2030,7 +2019,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>71</v>
@@ -2051,7 +2040,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>79</v>
@@ -2072,7 +2061,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>71</v>
@@ -2093,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>62</v>
@@ -2114,7 +2103,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>83</v>
@@ -2167,7 +2156,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2214,7 +2203,7 @@
         <v>85</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>71</v>
@@ -2235,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>71</v>
@@ -2256,7 +2245,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>83</v>
@@ -2277,7 +2266,7 @@
         <v>93</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>62</v>
@@ -2298,7 +2287,7 @@
         <v>95</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>62</v>
@@ -2351,7 +2340,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2398,7 +2387,7 @@
         <v>87</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>62</v>
@@ -2419,7 +2408,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>79</v>
@@ -2440,7 +2429,7 @@
         <v>97</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>71</v>
@@ -2461,7 +2450,7 @@
         <v>99</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>71</v>
@@ -2520,7 +2509,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -2564,10 +2553,10 @@
         <v>100</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>101</v>
@@ -2588,7 +2577,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E74" s="27" t="s">
         <v>62</v>
@@ -2609,7 +2598,7 @@
         <v>104</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E75" s="27" t="s">
         <v>62</v>
@@ -2630,7 +2619,7 @@
         <v>105</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>79</v>
@@ -2681,7 +2670,7 @@
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2692,7 +2681,7 @@
     </row>
     <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -2730,7 +2719,7 @@
         <v>109</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>71</v>
@@ -2751,7 +2740,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>62</v>
@@ -2765,13 +2754,13 @@
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C86" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>173</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>79</v>
@@ -2792,7 +2781,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>79</v>
@@ -2848,7 +2837,7 @@
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2893,7 +2882,7 @@
         <v>113</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>62</v>
@@ -2913,7 +2902,7 @@
         <v>117</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>64</v>
@@ -2933,7 +2922,7 @@
         <v>118</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E98" s="27" t="s">
         <v>64</v>
@@ -2953,7 +2942,7 @@
         <v>120</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>71</v>
@@ -3001,7 +2990,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -3153,7 +3142,7 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
@@ -3260,7 +3249,7 @@
         <v>61</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>28</v>
@@ -3269,91 +3258,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="15" t="s">
+    <row r="124" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="E124" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F124" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G124" s="16" t="s">
-        <v>20</v>
+      <c r="G124" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="15" t="s">
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-    </row>
-    <row r="128" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="12"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
       <c r="F128"/>
-      <c r="G128"/>
-    </row>
-    <row r="129" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="12"/>
@@ -3363,42 +3330,64 @@
       <c r="F130"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131" s="11"/>
+    <row r="131" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="12"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132" s="11"/>
-    </row>
-    <row r="133" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B133" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>9</v>
+      <c r="B132" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -3412,7 +3401,7 @@
         <v>61</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>55</v>
@@ -3421,91 +3410,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="15" t="s">
+    <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F135" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G135" s="16" t="s">
-        <v>90</v>
+      <c r="G135" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="15" t="s">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-    </row>
-    <row r="139" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="12"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
       <c r="F139"/>
-      <c r="G139"/>
-    </row>
-    <row r="140" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B140" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="10"/>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="12"/>
@@ -3515,42 +3482,64 @@
       <c r="F141"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142" s="11"/>
+    <row r="142" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="12"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143" s="11"/>
-    </row>
-    <row r="144" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>9</v>
+      <c r="B143" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -3564,72 +3553,32 @@
         <v>61</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F146" s="6" t="s">
+      <c r="E146" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G146" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G147" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G148" s="18" t="s">
+      <c r="G146" s="18" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED8D62-6F0B-416E-989E-4F3BF819B6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C2BBE1-677A-469D-8DD7-8446AAD15FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$2:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1156,7 +1155,406 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1508,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,37 +3986,37 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B11:G16 B84:G87 B109:G112">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$D11="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:G28">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$D24="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:G40">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D36="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:G52">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$D48="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:G63">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$D60="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:G76">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$D73="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:G99">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$D96="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Sprint Backlog_Versión 1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C2BBE1-677A-469D-8DD7-8446AAD15FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496ADEC3-AD4F-4D7A-AFC1-5D26545B577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1202,405 +1202,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1906,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3033,7 @@
         <v>129</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>79</v>
@@ -3452,7 +3053,7 @@
         <v>131</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>79</v>
@@ -3472,7 +3073,7 @@
         <v>133</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E111" s="27" t="s">
         <v>71</v>
@@ -3492,7 +3093,7 @@
         <v>135</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>71</v>
@@ -3986,37 +3587,37 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B11:G16 B84:G87 B109:G112">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D11="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:G28">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$D24="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:G40">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D36="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:G52">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$D48="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:G63">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D60="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:G76">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$D73="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:G99">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$D96="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
